--- a/Backlock.xlsx
+++ b/Backlock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david.corredor\Documents\GitHub\Forma3DAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31902E1-226C-4E44-9950-14B77E372014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D7B944-3166-40BE-92A5-EB5DB76EC622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FBEFA486-EF9D-491D-AA02-2D5FF167949D}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FBEFA486-EF9D-491D-AA02-2D5FF167949D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32518A19-3B0E-4DB7-9B7C-B135DCB5CABB}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -578,7 +578,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -589,7 +589,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -603,10 +603,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -617,10 +617,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -645,7 +645,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -659,7 +659,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -687,10 +687,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -701,10 +701,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -715,7 +715,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -732,7 +732,7 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -743,10 +743,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -757,10 +757,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
